--- a/data/Input/(For 523 team) Copy of Undergraduate Curriculum Coverage.xlsx
+++ b/data/Input/(For 523 team) Copy of Undergraduate Curriculum Coverage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minyuamzhang/Documents/UNC/2025 Spring/COMP 523/UNC-CS-Course-Scheduling-mk2/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minyuamzhang/Documents/UNC/2025 Spring/COMP 523/UNC-CS-Course-Scheduling-mk2/data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231EBD6C-B790-4944-BF3C-021FBE5DC88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B298266-5519-EF4A-A1BB-9B7F82E20678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" firstSheet="21" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value Meanings" sheetId="1" r:id="rId1"/>
@@ -38,31 +38,31 @@
     <sheet name="Jeffay" sheetId="23" r:id="rId23"/>
     <sheet name="Jordan" sheetId="24" r:id="rId24"/>
     <sheet name="Joseph-Nicholas" sheetId="25" r:id="rId25"/>
-    <sheet name="Kaur" sheetId="26" r:id="rId26"/>
-    <sheet name="Kwong" sheetId="27" r:id="rId27"/>
-    <sheet name="Len" sheetId="28" r:id="rId28"/>
-    <sheet name="Marks" sheetId="29" r:id="rId29"/>
-    <sheet name="Mayer-Patel" sheetId="30" r:id="rId30"/>
-    <sheet name="McMahon" sheetId="31" r:id="rId31"/>
-    <sheet name="McMillan" sheetId="32" r:id="rId32"/>
-    <sheet name="Munsell" sheetId="33" r:id="rId33"/>
-    <sheet name="Nirjon" sheetId="34" r:id="rId34"/>
-    <sheet name="Oliva" sheetId="35" r:id="rId35"/>
-    <sheet name="Porter" sheetId="36" r:id="rId36"/>
-    <sheet name="Pothukuchi" sheetId="37" r:id="rId37"/>
-    <sheet name="Reed" sheetId="38" r:id="rId38"/>
-    <sheet name="Ryan" sheetId="39" r:id="rId39"/>
-    <sheet name="Sengupta" sheetId="40" r:id="rId40"/>
-    <sheet name="Silva" sheetId="41" r:id="rId41"/>
-    <sheet name="Singh" sheetId="42" r:id="rId42"/>
-    <sheet name="Snoeyink" sheetId="43" r:id="rId43"/>
-    <sheet name="Srivastava" sheetId="44" r:id="rId44"/>
-    <sheet name="Stanley" sheetId="45" r:id="rId45"/>
-    <sheet name="Stotts" sheetId="46" r:id="rId46"/>
-    <sheet name="Sturton" sheetId="47" r:id="rId47"/>
-    <sheet name="Sun" sheetId="48" r:id="rId48"/>
-    <sheet name="Dan Szafir" sheetId="49" r:id="rId49"/>
-    <sheet name="Danielle Szafir" sheetId="50" r:id="rId50"/>
+    <sheet name="Kandel" sheetId="26" r:id="rId26"/>
+    <sheet name="Kaur" sheetId="27" r:id="rId27"/>
+    <sheet name="Kwong" sheetId="28" r:id="rId28"/>
+    <sheet name="Len" sheetId="29" r:id="rId29"/>
+    <sheet name="Marks" sheetId="30" r:id="rId30"/>
+    <sheet name="Mayer-Patel" sheetId="31" r:id="rId31"/>
+    <sheet name="McMahon" sheetId="32" r:id="rId32"/>
+    <sheet name="McMillan" sheetId="33" r:id="rId33"/>
+    <sheet name="Munsell" sheetId="34" r:id="rId34"/>
+    <sheet name="Nirjon" sheetId="35" r:id="rId35"/>
+    <sheet name="Oliva" sheetId="36" r:id="rId36"/>
+    <sheet name="Porter" sheetId="37" r:id="rId37"/>
+    <sheet name="Pothukuchi" sheetId="38" r:id="rId38"/>
+    <sheet name="Reed" sheetId="39" r:id="rId39"/>
+    <sheet name="Ryan" sheetId="40" r:id="rId40"/>
+    <sheet name="Sengupta" sheetId="41" r:id="rId41"/>
+    <sheet name="Silva" sheetId="42" r:id="rId42"/>
+    <sheet name="Singh" sheetId="43" r:id="rId43"/>
+    <sheet name="Snoeyink" sheetId="44" r:id="rId44"/>
+    <sheet name="Srivastava" sheetId="45" r:id="rId45"/>
+    <sheet name="Stanley" sheetId="46" r:id="rId46"/>
+    <sheet name="Stotts" sheetId="47" r:id="rId47"/>
+    <sheet name="Sturton" sheetId="48" r:id="rId48"/>
+    <sheet name="Sun" sheetId="49" r:id="rId49"/>
+    <sheet name="Szafir" sheetId="50" r:id="rId50"/>
     <sheet name="Yao" sheetId="51" r:id="rId51"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="94">
   <si>
     <t>Readiness / Qualification</t>
   </si>
@@ -267,19 +267,22 @@
     <t>COMP 750 Algorithm Analysis</t>
   </si>
   <si>
-    <t>COMP  790 - 158   Special Topics: Special topics in Natural Language Processing</t>
+    <t xml:space="preserve">COMP 590&amp;790-175   Special Topics: Visual Computing Systems        </t>
   </si>
   <si>
-    <t>COMP 790 - 150</t>
+    <t>COMP 790-158 Special Topics: Special topics in Natural Language Processing</t>
   </si>
   <si>
-    <t>COMP  790 - 189   Special Topics: Theoretical Foundations of Machine Learning</t>
+    <t>COMP 790-150   Special Topics: Efficient Deep Learning</t>
+  </si>
+  <si>
+    <t>COMP 790-189   Special Topics: Theoretical Foundations of Machine Learning</t>
   </si>
   <si>
     <t>COMP 89H - 063</t>
   </si>
   <si>
-    <t>COMP 790 - 186 Special Topics: Robot Learning</t>
+    <t>COMP 790-186 Special Topics: Robot Learning</t>
   </si>
   <si>
     <t>This can be a 3/4 after this semester</t>
@@ -303,28 +306,28 @@
     <t>I believe teaching 423 at scale will always win out over 523.</t>
   </si>
   <si>
-    <t>COMP 790 - 185 Special Topics: Research Topics in Computer Security</t>
+    <t>COMP 590-173   Special Topics: Information Visualization</t>
   </si>
   <si>
-    <t xml:space="preserve">COMP  790 - 188   Special Topics: Topics in Applied Cryptography        </t>
+    <t>COMP 790-185 Special Topics: Research Topics in Computer Security</t>
   </si>
   <si>
-    <t>COMP 590 - 80</t>
+    <t xml:space="preserve">COMP  790-188   Special Topics: Topics in Applied Cryptography        </t>
+  </si>
+  <si>
+    <t>COMP 590-080   Special Topics: Video Compression and Streaming</t>
   </si>
   <si>
     <t>I prefer to only teach this in the summer</t>
   </si>
   <si>
-    <t xml:space="preserve">COMP 590 - 159 </t>
-  </si>
-  <si>
     <t>COMP 755 Machine Learning</t>
   </si>
   <si>
-    <t>COMP 590&amp;790 - 187 Special Topics: Building the Infinite Brain</t>
+    <t>COMP 590&amp;790-187 Special Topics: Building the Infinite Brain</t>
   </si>
   <si>
-    <t>COMP 590 - 177</t>
+    <t>COMP 590-177   Special Topics: Introduction to Computer Vision</t>
   </si>
   <si>
     <t>COMP 651 Computational Geometry</t>
@@ -333,7 +336,7 @@
     <t>COMP 664 Deep Learning</t>
   </si>
   <si>
-    <t xml:space="preserve">COMP 590 - 059  </t>
+    <t>COMP 590-059   Special Topics: Special topics: Programming Methods, Models, Languages, and Analysis</t>
   </si>
   <si>
     <t>COMP 637 Formal Methods for Systems Security</t>
@@ -342,13 +345,13 @@
     <t>With a year's notice, I can also teach a more advanced algorithms course.</t>
   </si>
   <si>
-    <t>COMP 790 - 173 Special Topics: Special Topics in HCI</t>
+    <t>COMP 790-173 Special Topics: Special Topics in HCI</t>
   </si>
   <si>
-    <t>COMP 790 - 183 Special Topics: Transfer Learning</t>
+    <t>COMP 790-183 Special Topics: Transfer Learning</t>
   </si>
   <si>
-    <t xml:space="preserve">COMP 590 &amp; 790-175 Special Topics: Visual Computing Systems        </t>
+    <t>COMP 590-159 Special Topics: Interactive Computer Graphics using WebGL and HTML5</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1375,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -2034,7 +2037,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -2576,7 +2579,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -3238,7 +3241,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -3780,7 +3783,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -4073,7 +4076,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4837,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4851,7 +4854,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4964,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5112,7 +5115,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -10305,7 +10308,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10550,7 +10553,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11406,6 +11409,548 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="56.5" customWidth="1"/>
+    <col min="2" max="2" width="66.83203125" customWidth="1"/>
+    <col min="3" max="3" width="59.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C48" xr:uid="{00000000-0002-0000-1900-000000000000}">
+      <formula1>"0,1,2,3,4"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12044,7 +12589,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C47" xr:uid="{00000000-0002-0000-1900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C47" xr:uid="{00000000-0002-0000-1A00-000000000000}">
       <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12052,8 +12597,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -12695,7 +13240,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -12709,7 +13254,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C48" xr:uid="{00000000-0002-0000-1A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C48" xr:uid="{00000000-0002-0000-1B00-000000000000}">
       <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12717,8 +13262,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -13240,7 +13785,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -13251,658 +13796,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C48" xr:uid="{00000000-0002-0000-1B00-000000000000}">
-      <formula1>"0,1,2,3,4"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:Z47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="49.83203125" customWidth="1"/>
-    <col min="2" max="2" width="39.83203125" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="1">
-        <v>0</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="1">
-        <v>0</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C47" xr:uid="{00000000-0002-0000-1C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C48" xr:uid="{00000000-0002-0000-1C00-000000000000}">
       <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14566,7 +14460,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
@@ -14756,10 +14650,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14767,10 +14661,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14778,10 +14672,10 @@
         <v>24</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14789,10 +14683,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14800,10 +14694,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14811,10 +14705,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14822,10 +14716,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14833,10 +14727,10 @@
         <v>29</v>
       </c>
       <c r="B14" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14844,10 +14738,10 @@
         <v>30</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14877,10 +14771,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14888,10 +14782,10 @@
         <v>34</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14899,10 +14793,10 @@
         <v>35</v>
       </c>
       <c r="B20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14910,10 +14804,10 @@
         <v>36</v>
       </c>
       <c r="B21" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14924,7 +14818,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14935,7 +14829,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14943,10 +14837,10 @@
         <v>39</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14954,10 +14848,10 @@
         <v>40</v>
       </c>
       <c r="B25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14998,10 +14892,10 @@
         <v>44</v>
       </c>
       <c r="B29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15009,10 +14903,10 @@
         <v>45</v>
       </c>
       <c r="B30" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15020,10 +14914,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15031,10 +14925,10 @@
         <v>47</v>
       </c>
       <c r="B32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15042,10 +14936,10 @@
         <v>48</v>
       </c>
       <c r="B33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15056,7 +14950,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15075,10 +14969,10 @@
         <v>51</v>
       </c>
       <c r="B36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15097,10 +14991,10 @@
         <v>53</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15144,7 +15038,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15152,10 +15046,10 @@
         <v>58</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15202,20 +15096,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="1">
-        <v>4</v>
-      </c>
-      <c r="C48" s="1">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C48" xr:uid="{00000000-0002-0000-1D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C47" xr:uid="{00000000-0002-0000-1D00-000000000000}">
       <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15228,7 +15111,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
@@ -15418,10 +15301,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15429,10 +15312,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15440,10 +15323,10 @@
         <v>24</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15451,10 +15334,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15462,10 +15345,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15473,10 +15356,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15484,10 +15367,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15495,10 +15378,10 @@
         <v>29</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15506,10 +15389,10 @@
         <v>30</v>
       </c>
       <c r="B15" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15517,13 +15400,10 @@
         <v>31</v>
       </c>
       <c r="B16" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15531,10 +15411,10 @@
         <v>32</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15542,10 +15422,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15553,10 +15433,10 @@
         <v>34</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15564,10 +15444,10 @@
         <v>35</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15575,10 +15455,10 @@
         <v>36</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15586,10 +15466,10 @@
         <v>37</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15600,7 +15480,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15608,10 +15488,10 @@
         <v>39</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15619,10 +15499,10 @@
         <v>40</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15666,7 +15546,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15674,10 +15554,10 @@
         <v>45</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15685,10 +15565,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15699,7 +15579,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15707,10 +15587,10 @@
         <v>48</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15721,7 +15601,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15740,10 +15620,10 @@
         <v>51</v>
       </c>
       <c r="B36" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15762,10 +15642,10 @@
         <v>53</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15809,7 +15689,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15817,10 +15697,10 @@
         <v>58</v>
       </c>
       <c r="B43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15867,9 +15747,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C47" xr:uid="{00000000-0002-0000-1E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C48" xr:uid="{00000000-0002-0000-1E00-000000000000}">
       <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16072,10 +15963,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16083,10 +15974,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16094,10 +15985,10 @@
         <v>24</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16105,10 +15996,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16116,10 +16007,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16127,10 +16018,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16138,10 +16029,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16149,10 +16040,10 @@
         <v>29</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16171,10 +16062,13 @@
         <v>31</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16182,10 +16076,10 @@
         <v>32</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16193,10 +16087,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16215,10 +16109,10 @@
         <v>35</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16237,7 +16131,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -16314,7 +16208,7 @@
         <v>44</v>
       </c>
       <c r="B29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -16347,10 +16241,10 @@
         <v>47</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16391,10 +16285,10 @@
         <v>51</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16533,7 +16427,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
@@ -16723,10 +16617,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16734,10 +16628,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16756,10 +16650,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16767,10 +16661,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16789,10 +16683,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16800,10 +16694,10 @@
         <v>29</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16844,10 +16738,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16866,10 +16760,10 @@
         <v>35</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16877,10 +16771,10 @@
         <v>36</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16910,10 +16804,10 @@
         <v>39</v>
       </c>
       <c r="B24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16921,10 +16815,10 @@
         <v>40</v>
       </c>
       <c r="B25" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16998,10 +16892,10 @@
         <v>47</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17009,10 +16903,10 @@
         <v>48</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17042,10 +16936,10 @@
         <v>51</v>
       </c>
       <c r="B36" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17053,10 +16947,10 @@
         <v>52</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17086,10 +16980,10 @@
         <v>55</v>
       </c>
       <c r="B40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17097,10 +16991,10 @@
         <v>56</v>
       </c>
       <c r="B41" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C41" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17119,10 +17013,10 @@
         <v>58</v>
       </c>
       <c r="B43" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17130,10 +17024,10 @@
         <v>59</v>
       </c>
       <c r="B44" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17141,10 +17035,10 @@
         <v>60</v>
       </c>
       <c r="B45" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C45" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17169,20 +17063,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="1">
-        <v>4</v>
-      </c>
-      <c r="C48" s="1">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C48" xr:uid="{00000000-0002-0000-2000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C47" xr:uid="{00000000-0002-0000-2000-000000000000}">
       <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17195,13 +17078,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17385,10 +17268,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17396,10 +17279,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17418,10 +17301,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17429,10 +17312,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17451,10 +17334,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17462,10 +17345,10 @@
         <v>29</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17473,10 +17356,10 @@
         <v>30</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17506,10 +17389,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17528,10 +17411,10 @@
         <v>35</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17539,10 +17422,10 @@
         <v>36</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17550,10 +17433,10 @@
         <v>37</v>
       </c>
       <c r="B22" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17572,10 +17455,10 @@
         <v>39</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17583,10 +17466,10 @@
         <v>40</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17660,10 +17543,10 @@
         <v>47</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17671,10 +17554,10 @@
         <v>48</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17704,10 +17587,10 @@
         <v>51</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17715,10 +17598,10 @@
         <v>52</v>
       </c>
       <c r="B37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17748,10 +17631,10 @@
         <v>55</v>
       </c>
       <c r="B40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17759,10 +17642,10 @@
         <v>56</v>
       </c>
       <c r="B41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17781,10 +17664,10 @@
         <v>58</v>
       </c>
       <c r="B43" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17792,10 +17675,10 @@
         <v>59</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17803,10 +17686,10 @@
         <v>60</v>
       </c>
       <c r="B45" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17831,9 +17714,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C47" xr:uid="{00000000-0002-0000-2100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C48" xr:uid="{00000000-0002-0000-2100-000000000000}">
       <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17846,7 +17740,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
@@ -18201,10 +18095,10 @@
         <v>37</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18482,20 +18376,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="1">
-        <v>4</v>
-      </c>
-      <c r="C48" s="1">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C48" xr:uid="{00000000-0002-0000-2200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C47" xr:uid="{00000000-0002-0000-2200-000000000000}">
       <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18508,7 +18391,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
@@ -18698,10 +18581,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18709,10 +18592,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18720,10 +18603,10 @@
         <v>24</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18731,10 +18614,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18742,10 +18625,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18753,10 +18636,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18764,10 +18647,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18775,10 +18658,10 @@
         <v>29</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18786,10 +18669,10 @@
         <v>30</v>
       </c>
       <c r="B15" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18797,10 +18680,10 @@
         <v>31</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18808,10 +18691,10 @@
         <v>32</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18819,10 +18702,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18830,10 +18713,10 @@
         <v>34</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18841,10 +18724,10 @@
         <v>35</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18852,10 +18735,10 @@
         <v>36</v>
       </c>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18863,10 +18746,10 @@
         <v>37</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18874,10 +18757,10 @@
         <v>38</v>
       </c>
       <c r="B23" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18885,10 +18768,10 @@
         <v>39</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18896,10 +18779,10 @@
         <v>40</v>
       </c>
       <c r="B25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18929,7 +18812,7 @@
         <v>43</v>
       </c>
       <c r="B28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -18940,10 +18823,10 @@
         <v>44</v>
       </c>
       <c r="B29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18951,10 +18834,10 @@
         <v>45</v>
       </c>
       <c r="B30" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18962,10 +18845,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18973,10 +18856,10 @@
         <v>47</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18984,10 +18867,10 @@
         <v>48</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18995,10 +18878,10 @@
         <v>49</v>
       </c>
       <c r="B34" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19017,10 +18900,10 @@
         <v>51</v>
       </c>
       <c r="B36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19028,10 +18911,10 @@
         <v>52</v>
       </c>
       <c r="B37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19039,10 +18922,10 @@
         <v>53</v>
       </c>
       <c r="B38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19094,10 +18977,10 @@
         <v>58</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19144,9 +19027,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C47" xr:uid="{00000000-0002-0000-2300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C48" xr:uid="{00000000-0002-0000-2300-000000000000}">
       <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19159,7 +19053,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
@@ -19349,10 +19243,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19360,10 +19254,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19371,10 +19265,10 @@
         <v>24</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19382,10 +19276,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19396,7 +19290,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19404,10 +19298,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19415,10 +19309,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19426,10 +19320,10 @@
         <v>29</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19437,10 +19331,10 @@
         <v>30</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19448,10 +19342,10 @@
         <v>31</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19459,10 +19353,10 @@
         <v>32</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19470,10 +19364,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19481,10 +19375,10 @@
         <v>34</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19492,10 +19386,10 @@
         <v>35</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19503,10 +19397,10 @@
         <v>36</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19514,10 +19408,10 @@
         <v>37</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19525,10 +19419,10 @@
         <v>38</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19536,10 +19430,10 @@
         <v>39</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19547,10 +19441,10 @@
         <v>40</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19580,7 +19474,7 @@
         <v>43</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -19591,10 +19485,10 @@
         <v>44</v>
       </c>
       <c r="B29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19602,10 +19496,10 @@
         <v>45</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19613,10 +19507,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19624,10 +19518,10 @@
         <v>47</v>
       </c>
       <c r="B32" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19635,10 +19529,10 @@
         <v>48</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19646,10 +19540,10 @@
         <v>49</v>
       </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19671,7 +19565,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19679,10 +19573,10 @@
         <v>52</v>
       </c>
       <c r="B37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19690,10 +19584,10 @@
         <v>53</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19745,10 +19639,10 @@
         <v>58</v>
       </c>
       <c r="B43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19795,24 +19689,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="1">
-        <v>4</v>
-      </c>
-      <c r="C48" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C49" xr:uid="{00000000-0002-0000-2400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C47" xr:uid="{00000000-0002-0000-2400-000000000000}">
       <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19825,18 +19704,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="49" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="42.1640625" customWidth="1"/>
+    <col min="1" max="1" width="49.83203125" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -19845,7 +19729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -19853,8 +19737,31 @@
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -19862,8 +19769,31 @@
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -19871,8 +19801,31 @@
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -19880,8 +19833,31 @@
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>20</v>
@@ -19889,8 +19865,31 @@
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -19901,7 +19900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -19912,7 +19911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -19923,7 +19922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -19934,18 +19933,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -19956,7 +19955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -19967,7 +19966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -19978,18 +19977,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -20093,10 +20092,10 @@
         <v>40</v>
       </c>
       <c r="B25" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20137,10 +20136,10 @@
         <v>44</v>
       </c>
       <c r="B29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20170,10 +20169,10 @@
         <v>47</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20214,10 +20213,10 @@
         <v>51</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20341,9 +20340,24 @@
         <v>0</v>
       </c>
     </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C47" xr:uid="{00000000-0002-0000-2500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C49" xr:uid="{00000000-0002-0000-2500-000000000000}">
       <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20363,8 +20377,8 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
-    <col min="2" max="2" width="70.5" customWidth="1"/>
-    <col min="3" max="3" width="65.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="42.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20514,10 +20528,10 @@
         <v>30</v>
       </c>
       <c r="B15" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20602,10 +20616,10 @@
         <v>38</v>
       </c>
       <c r="B23" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20624,10 +20638,10 @@
         <v>40</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21560,6 +21574,537 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="49" customWidth="1"/>
+    <col min="2" max="2" width="70.5" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C47" xr:uid="{00000000-0002-0000-2700-000000000000}">
+      <formula1>"0,1,2,3,4"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <dimension ref="A1:Z48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22198,7 +22743,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -22209,7 +22754,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C48" xr:uid="{00000000-0002-0000-2700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C48" xr:uid="{00000000-0002-0000-2800-000000000000}">
       <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22217,8 +22762,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -22740,7 +23285,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C47" xr:uid="{00000000-0002-0000-2800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C47" xr:uid="{00000000-0002-0000-2900-000000000000}">
       <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22748,8 +23293,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -23387,668 +23932,6 @@
       </c>
       <c r="C47" s="1">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C47" xr:uid="{00000000-0002-0000-2900-000000000000}">
-      <formula1>"0,1,2,3,4"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:Z48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="49.83203125" customWidth="1"/>
-    <col min="2" max="2" width="39.83203125" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="1">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="1">
-        <v>3</v>
-      </c>
-      <c r="C38" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="1">
-        <v>2</v>
-      </c>
-      <c r="C39" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="1">
-        <v>0</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="1">
-        <v>2</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="1">
-        <v>4</v>
-      </c>
-      <c r="C48" s="1">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -24267,10 +24150,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24289,10 +24172,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24322,10 +24205,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24377,10 +24260,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24443,10 +24326,10 @@
         <v>39</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24454,10 +24337,10 @@
         <v>40</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24487,10 +24370,10 @@
         <v>43</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24498,10 +24381,10 @@
         <v>44</v>
       </c>
       <c r="B29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24597,10 +24480,10 @@
         <v>53</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24608,10 +24491,10 @@
         <v>54</v>
       </c>
       <c r="B39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24652,10 +24535,10 @@
         <v>58</v>
       </c>
       <c r="B43" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24685,10 +24568,10 @@
         <v>61</v>
       </c>
       <c r="B46" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24710,7 +24593,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -24728,7 +24611,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
@@ -24918,7 +24801,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -24929,10 +24812,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24984,10 +24867,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -25149,10 +25032,10 @@
         <v>43</v>
       </c>
       <c r="B28" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -25292,10 +25175,10 @@
         <v>56</v>
       </c>
       <c r="B41" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C41" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -25364,9 +25247,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C47" xr:uid="{00000000-0002-0000-2C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C48" xr:uid="{00000000-0002-0000-2C00-000000000000}">
       <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -25379,7 +25273,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
@@ -25569,7 +25463,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -25583,7 +25477,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -25602,7 +25496,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -25624,7 +25518,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -25635,10 +25529,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -25646,7 +25540,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -25690,7 +25584,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -25701,7 +25595,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -25712,7 +25606,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -25756,7 +25650,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -25800,10 +25694,10 @@
         <v>43</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -25811,7 +25705,7 @@
         <v>44</v>
       </c>
       <c r="B29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -25822,10 +25716,10 @@
         <v>45</v>
       </c>
       <c r="B30" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C30" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -25833,7 +25727,7 @@
         <v>46</v>
       </c>
       <c r="B31" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -25943,10 +25837,10 @@
         <v>56</v>
       </c>
       <c r="B41" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26015,20 +25909,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="1">
-        <v>4</v>
-      </c>
-      <c r="C48" s="1">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C48" xr:uid="{00000000-0002-0000-2D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C47" xr:uid="{00000000-0002-0000-2D00-000000000000}">
       <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26231,7 +26114,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -26242,7 +26125,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -26264,10 +26147,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26275,10 +26158,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26286,7 +26169,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -26297,10 +26180,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26308,10 +26191,10 @@
         <v>29</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26319,10 +26202,10 @@
         <v>30</v>
       </c>
       <c r="B15" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26352,7 +26235,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -26363,7 +26246,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -26374,7 +26257,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -26385,7 +26268,7 @@
         <v>36</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -26396,7 +26279,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -26407,10 +26290,10 @@
         <v>38</v>
       </c>
       <c r="B23" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26418,10 +26301,10 @@
         <v>39</v>
       </c>
       <c r="B24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26473,10 +26356,10 @@
         <v>44</v>
       </c>
       <c r="B29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26484,10 +26367,10 @@
         <v>45</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26495,10 +26378,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26506,10 +26389,10 @@
         <v>47</v>
       </c>
       <c r="B32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26528,10 +26411,10 @@
         <v>49</v>
       </c>
       <c r="B34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26539,10 +26422,10 @@
         <v>50</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26550,10 +26433,10 @@
         <v>51</v>
       </c>
       <c r="B36" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26572,10 +26455,10 @@
         <v>53</v>
       </c>
       <c r="B38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26703,7 +26586,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
@@ -26893,10 +26776,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26904,10 +26787,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26929,7 +26812,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26937,7 +26820,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -26948,10 +26831,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26959,10 +26842,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26970,10 +26853,10 @@
         <v>29</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26981,10 +26864,10 @@
         <v>30</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26992,10 +26875,10 @@
         <v>31</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -27047,7 +26930,7 @@
         <v>36</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -27058,7 +26941,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -27069,10 +26952,10 @@
         <v>38</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -27080,10 +26963,10 @@
         <v>39</v>
       </c>
       <c r="B24" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -27135,10 +27018,10 @@
         <v>44</v>
       </c>
       <c r="B29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -27157,10 +27040,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -27168,13 +27051,13 @@
         <v>47</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -27185,40 +27068,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
@@ -27229,43 +27112,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B38" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>4</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -27276,7 +27156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
@@ -27287,7 +27167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>58</v>
       </c>
@@ -27298,7 +27178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>59</v>
       </c>
@@ -27309,7 +27189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
@@ -27320,7 +27200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
@@ -27331,7 +27211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>62</v>
       </c>
@@ -27342,9 +27222,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C47" xr:uid="{00000000-0002-0000-2F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C48" xr:uid="{00000000-0002-0000-2F00-000000000000}">
       <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -27357,7 +27248,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
@@ -27547,10 +27438,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -27558,10 +27449,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -27580,10 +27471,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -27591,10 +27482,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -27602,10 +27493,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -27613,10 +27504,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -27646,10 +27537,10 @@
         <v>31</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -27734,10 +27625,10 @@
         <v>39</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -27828,7 +27719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -27839,7 +27730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
@@ -27850,7 +27741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
@@ -27861,7 +27752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
@@ -27872,7 +27763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
@@ -27883,40 +27774,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -27927,7 +27821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
@@ -27938,7 +27832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>58</v>
       </c>
@@ -27949,7 +27843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>59</v>
       </c>
@@ -27960,7 +27854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
@@ -27971,7 +27865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
@@ -27982,7 +27876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>62</v>
       </c>
@@ -27993,23 +27887,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="1">
-        <v>4</v>
-      </c>
-      <c r="C48" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C48" xr:uid="{00000000-0002-0000-3000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C47" xr:uid="{00000000-0002-0000-3000-000000000000}">
       <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28673,7 +28553,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
@@ -29309,9 +29189,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C47" xr:uid="{00000000-0002-0000-3100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:C48" xr:uid="{00000000-0002-0000-3100-000000000000}">
       <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -29962,7 +29856,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -31944,11 +31838,11 @@
   </sheetPr>
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -32580,7 +32474,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>

--- a/data/Input/(For 523 team) Copy of Undergraduate Curriculum Coverage.xlsx
+++ b/data/Input/(For 523 team) Copy of Undergraduate Curriculum Coverage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minyuamzhang/Documents/UNC/2025 Spring/COMP 523/UNC-CS-Course-Scheduling-mk2/data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B298266-5519-EF4A-A1BB-9B7F82E20678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EC69F8-C505-3140-9E35-66B9A6A7A28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" firstSheet="21" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value Meanings" sheetId="1" r:id="rId1"/>
@@ -3267,7 +3267,9 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -17080,8 +17082,8 @@
   </sheetPr>
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="A48" sqref="A48"/>

--- a/data/Input/(For 523 team) Copy of Undergraduate Curriculum Coverage.xlsx
+++ b/data/Input/(For 523 team) Copy of Undergraduate Curriculum Coverage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minyuamzhang/Documents/UNC/2025 Spring/COMP 523/UNC-CS-Course-Scheduling-mk2/data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EC69F8-C505-3140-9E35-66B9A6A7A28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F32E686-5BF8-1945-8077-319E4A3A106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value Meanings" sheetId="1" r:id="rId1"/>
@@ -273,12 +273,6 @@
     <t>COMP 790-158 Special Topics: Special topics in Natural Language Processing</t>
   </si>
   <si>
-    <t>COMP 790-150   Special Topics: Efficient Deep Learning</t>
-  </si>
-  <si>
-    <t>COMP 790-189   Special Topics: Theoretical Foundations of Machine Learning</t>
-  </si>
-  <si>
     <t>COMP 89H - 063</t>
   </si>
   <si>
@@ -310,9 +304,6 @@
   </si>
   <si>
     <t>COMP 790-185 Special Topics: Research Topics in Computer Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMP  790-188   Special Topics: Topics in Applied Cryptography        </t>
   </si>
   <si>
     <t>COMP 590-080   Special Topics: Video Compression and Streaming</t>
@@ -352,6 +343,15 @@
   </si>
   <si>
     <t>COMP 590-159 Special Topics: Interactive Computer Graphics using WebGL and HTML5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMP 790-188 Special Topics: Topics in Applied Cryptography        </t>
+  </si>
+  <si>
+    <t>COMP 790-189 Special Topics: Theoretical Foundations of Machine Learning</t>
+  </si>
+  <si>
+    <t>COMP 790-150 Special Topics: Efficient Deep Learning</t>
   </si>
 </sst>
 </file>
@@ -1401,11 +1401,11 @@
   </sheetPr>
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -2063,7 +2063,9 @@
   </sheetPr>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2579,7 +2581,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -3241,7 +3243,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -3267,7 +3269,7 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -3785,7 +3787,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -4078,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4842,7 +4844,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4856,7 +4858,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4969,7 +4971,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5117,7 +5119,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -10310,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10555,7 +10557,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11929,7 +11931,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -13242,7 +13244,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -13271,7 +13273,9 @@
   </sheetPr>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -13787,7 +13791,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -15751,7 +15755,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -16070,7 +16074,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17718,7 +17722,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -19031,7 +19035,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -20344,7 +20348,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -22745,7 +22749,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -24589,7 +24593,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -25251,7 +25255,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -26564,7 +26568,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -27226,7 +27230,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -27787,7 +27791,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -29193,7 +29197,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -29858,7 +29862,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>

--- a/data/Input/(For 523 team) Copy of Undergraduate Curriculum Coverage.xlsx
+++ b/data/Input/(For 523 team) Copy of Undergraduate Curriculum Coverage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minyuamzhang/Documents/UNC/2025 Spring/COMP 523/UNC-CS-Course-Scheduling-mk2/data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F32E686-5BF8-1945-8077-319E4A3A106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6388D5C6-0D01-E24E-9D75-7341A4A9E7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" firstSheet="10" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value Meanings" sheetId="1" r:id="rId1"/>
@@ -300,9 +300,6 @@
     <t>I believe teaching 423 at scale will always win out over 523.</t>
   </si>
   <si>
-    <t>COMP 590-173   Special Topics: Information Visualization</t>
-  </si>
-  <si>
     <t>COMP 790-185 Special Topics: Research Topics in Computer Security</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>COMP 790-150 Special Topics: Efficient Deep Learning</t>
+  </si>
+  <si>
+    <t>COMP 590-173 Special Topics: Information Visualization</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1401,7 @@
   </sheetPr>
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -11415,7 +11415,9 @@
   </sheetPr>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -11931,7 +11933,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -13244,7 +13246,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -13791,7 +13793,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -15755,7 +15757,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -16074,7 +16076,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17722,7 +17724,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -19035,7 +19037,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -20348,7 +20350,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -22749,7 +22751,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -24593,7 +24595,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -25255,7 +25257,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -26568,7 +26570,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -27230,7 +27232,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -27791,7 +27793,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -29197,7 +29199,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -29862,7 +29864,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>

--- a/data/Input/(For 523 team) Copy of Undergraduate Curriculum Coverage.xlsx
+++ b/data/Input/(For 523 team) Copy of Undergraduate Curriculum Coverage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minyuamzhang/Documents/UNC/2025 Spring/COMP 523/UNC-CS-Course-Scheduling-mk2/data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6388D5C6-0D01-E24E-9D75-7341A4A9E7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6E5334-B921-E843-8357-AD86179215F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" firstSheet="10" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" firstSheet="28" activeTab="46" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value Meanings" sheetId="1" r:id="rId1"/>
@@ -324,9 +324,6 @@
     <t>COMP 664 Deep Learning</t>
   </si>
   <si>
-    <t>COMP 590-059   Special Topics: Special topics: Programming Methods, Models, Languages, and Analysis</t>
-  </si>
-  <si>
     <t>COMP 637 Formal Methods for Systems Security</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>COMP 590-173 Special Topics: Information Visualization</t>
+  </si>
+  <si>
+    <t>COMP 590-059 Special Topics: Special topics: Programming Methods, Models, Languages, and Analysis</t>
   </si>
 </sst>
 </file>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -11415,8 +11415,8 @@
   </sheetPr>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11933,7 +11933,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -13793,7 +13793,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -17724,7 +17724,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -25934,11 +25934,11 @@
   </sheetPr>
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26570,7 +26570,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -27232,7 +27232,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -27793,7 +27793,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -29199,7 +29199,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -29864,7 +29864,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>

--- a/data/Input/(For 523 team) Copy of Undergraduate Curriculum Coverage.xlsx
+++ b/data/Input/(For 523 team) Copy of Undergraduate Curriculum Coverage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minyuamzhang/Documents/UNC/2025 Spring/COMP 523/UNC-CS-Course-Scheduling-mk2/data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6E5334-B921-E843-8357-AD86179215F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279F752F-B9F8-844C-B943-5B616B71EC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" firstSheet="28" activeTab="46" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" firstSheet="28" activeTab="40" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value Meanings" sheetId="1" r:id="rId1"/>
@@ -315,9 +315,6 @@
     <t>COMP 590&amp;790-187 Special Topics: Building the Infinite Brain</t>
   </si>
   <si>
-    <t>COMP 590-177   Special Topics: Introduction to Computer Vision</t>
-  </si>
-  <si>
     <t>COMP 651 Computational Geometry</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>COMP 590-059 Special Topics: Special topics: Programming Methods, Models, Languages, and Analysis</t>
+  </si>
+  <si>
+    <t>COMP 590-177 Special Topics: Introduction to Computer Vision</t>
   </si>
 </sst>
 </file>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -11933,7 +11933,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -13793,7 +13793,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -17724,7 +17724,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -22115,11 +22115,11 @@
   </sheetPr>
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22751,7 +22751,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -24595,7 +24595,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -25257,7 +25257,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -25934,7 +25934,7 @@
   </sheetPr>
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -26570,7 +26570,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -27232,7 +27232,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -27793,7 +27793,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -29199,7 +29199,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -29864,7 +29864,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>

--- a/data/Input/(For 523 team) Copy of Undergraduate Curriculum Coverage.xlsx
+++ b/data/Input/(For 523 team) Copy of Undergraduate Curriculum Coverage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minyuamzhang/Documents/UNC/2025 Spring/COMP 523/UNC-CS-Course-Scheduling-mk2/data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279F752F-B9F8-844C-B943-5B616B71EC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76E7D71-8F19-704F-8751-413AE42090BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" firstSheet="28" activeTab="40" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value Meanings" sheetId="1" r:id="rId1"/>
@@ -267,9 +267,6 @@
     <t>COMP 750 Algorithm Analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">COMP 590&amp;790-175   Special Topics: Visual Computing Systems        </t>
-  </si>
-  <si>
     <t>COMP 790-158 Special Topics: Special topics in Natural Language Processing</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
   </si>
   <si>
     <t>COMP 790-185 Special Topics: Research Topics in Computer Security</t>
-  </si>
-  <si>
-    <t>COMP 590-080   Special Topics: Video Compression and Streaming</t>
   </si>
   <si>
     <t>I prefer to only teach this in the summer</t>
@@ -352,6 +346,12 @@
   </si>
   <si>
     <t>COMP 590-177 Special Topics: Introduction to Computer Vision</t>
+  </si>
+  <si>
+    <t>COMP 590-080 Special Topics: Video Compression and Streaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMP 590&amp;790-175 Special Topics: Visual Computing Systems        </t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -4080,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4844,7 +4844,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4858,7 +4858,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4971,7 +4971,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5119,7 +5119,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -10312,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10557,7 +10557,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11933,7 +11933,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -13246,7 +13246,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -13793,7 +13793,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -15125,7 +15125,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15757,7 +15757,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -16076,7 +16076,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17724,7 +17724,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -19037,7 +19037,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -20350,7 +20350,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -22115,7 +22115,7 @@
   </sheetPr>
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -22751,7 +22751,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -24595,7 +24595,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -25257,7 +25257,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -26570,7 +26570,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -27232,7 +27232,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -27793,7 +27793,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -29199,7 +29199,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -29864,7 +29864,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -31846,11 +31846,11 @@
   </sheetPr>
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -32482,7 +32482,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>

--- a/data/Input/(For 523 team) Copy of Undergraduate Curriculum Coverage.xlsx
+++ b/data/Input/(For 523 team) Copy of Undergraduate Curriculum Coverage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minyuamzhang/Documents/UNC/2025 Spring/COMP 523/UNC-CS-Course-Scheduling-mk2/data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76E7D71-8F19-704F-8751-413AE42090BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CDC998-E9C5-4740-A0A4-C2A817CC4DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value Meanings" sheetId="1" r:id="rId1"/>
@@ -267,9 +267,6 @@
     <t>COMP 750 Algorithm Analysis</t>
   </si>
   <si>
-    <t>COMP 790-158 Special Topics: Special topics in Natural Language Processing</t>
-  </si>
-  <si>
     <t>COMP 89H - 063</t>
   </si>
   <si>
@@ -342,16 +339,19 @@
     <t>COMP 590-173 Special Topics: Information Visualization</t>
   </si>
   <si>
-    <t>COMP 590-059 Special Topics: Special topics: Programming Methods, Models, Languages, and Analysis</t>
-  </si>
-  <si>
     <t>COMP 590-177 Special Topics: Introduction to Computer Vision</t>
   </si>
   <si>
-    <t>COMP 590-080 Special Topics: Video Compression and Streaming</t>
+    <t xml:space="preserve">COMP 590&amp;790-175 Special Topics: Visual Computing Systems        </t>
   </si>
   <si>
-    <t xml:space="preserve">COMP 590&amp;790-175 Special Topics: Visual Computing Systems        </t>
+    <t>COMP 590-59 Special Topics: Special topics: Programming Methods, Models, Languages, and Analysis</t>
+  </si>
+  <si>
+    <t>COMP 590-80 Special Topics: Video Compression and Streaming</t>
+  </si>
+  <si>
+    <t>COMP 590&amp;790-158 Special Topics: Special topics in Natural Language Processing</t>
   </si>
 </sst>
 </file>
@@ -739,11 +739,11 @@
   </sheetPr>
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -4080,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4844,7 +4844,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4858,7 +4858,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4971,7 +4971,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5119,7 +5119,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -10312,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10557,7 +10557,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11933,7 +11933,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -13246,7 +13246,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -13793,7 +13793,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -16076,7 +16076,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17724,7 +17724,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -19037,7 +19037,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -19718,7 +19718,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20350,7 +20350,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -22751,7 +22751,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -23312,7 +23312,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -24595,7 +24595,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -25257,7 +25257,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -26570,7 +26570,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -27232,7 +27232,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -27793,7 +27793,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -29199,7 +29199,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -29864,7 +29864,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -31846,7 +31846,7 @@
   </sheetPr>
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -32482,7 +32482,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>

--- a/data/Input/(For 523 team) Copy of Undergraduate Curriculum Coverage.xlsx
+++ b/data/Input/(For 523 team) Copy of Undergraduate Curriculum Coverage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minyuamzhang/Documents/UNC/2025 Spring/COMP 523/UNC-CS-Course-Scheduling-mk2/data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CDC998-E9C5-4740-A0A4-C2A817CC4DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DA51F1-0C5E-5742-9E44-A25D401334C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Value Meanings" sheetId="1" r:id="rId1"/>
@@ -743,7 +743,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1290,10 +1290,10 @@
         <v>55</v>
       </c>
       <c r="B40" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7627,7 +7627,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
